--- a/03 PE/003 节表解释器.xlsx
+++ b/03 PE/003 节表解释器.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\.important\mySoftwareReverse\03 PE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95672961-F3D5-4CD5-8648-3267F4A13BA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{988C779A-D839-4CA6-957B-0A77A7532748}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="索引" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="222">
   <si>
     <t>1、联合体</t>
   </si>
@@ -196,18 +196,6 @@
   </si>
   <si>
     <t>注意：该名称并不遵守必须以"\0"结尾的规律，如果不是以"\0"结尾，系统会截取8个字节的长度进行处理.</t>
-  </si>
-  <si>
-    <t>2、Misc  双字 是该节在没有对齐前的真实尺寸,该值可以不准确。</t>
-  </si>
-  <si>
-    <t>3、VirtualAddress 节区在内存中的偏移地址。加上ImageBase才是在内存中的真正地址.</t>
-  </si>
-  <si>
-    <t>4、SizeOfRawData  节在文件中对齐后的尺寸.</t>
-  </si>
-  <si>
-    <t>5、PointerToRawData 节区在文件中的偏移.</t>
   </si>
   <si>
     <t>6、PointerToRelocations 在obj文件中使用 对exe无意义</t>
@@ -247,6 +235,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> X X X X X X X X</t>
@@ -266,6 +255,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> X X X X X X X X </t>
@@ -292,6 +282,7 @@
         <sz val="12"/>
         <color indexed="10"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>B</t>
@@ -300,6 +291,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> 0 0 0 0 0 0</t>
@@ -320,6 +312,7 @@
         <sz val="12"/>
         <color indexed="13"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>B</t>
@@ -328,6 +321,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> 0 0 0 0 0 0</t>
@@ -766,6 +760,26 @@
       </rPr>
       <t>使用notepad.exe来练习).</t>
     </r>
+  </si>
+  <si>
+    <t>2、Misc  双字 是该节在没有对齐前的真实尺寸,该值可以不准确，存储该节运行时在内存中大小，可以大于 SizeOfRawData</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>free(file_buffer);  // 释放heap</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>3、VirtualAddress 节区在内存中的偏移地址。加上ImageBase才是在内存中的真正地址.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>4、SizeOfRawData  节在文件中对齐后的尺寸.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>5、PointerToRawData 节区在文件中的偏移.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -782,12 +796,14 @@
       <sz val="12"/>
       <color indexed="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color indexed="13"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -795,6 +811,7 @@
       <sz val="12"/>
       <color indexed="20"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -802,11 +819,13 @@
       <sz val="12"/>
       <color indexed="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -823,9 +842,7 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
       <sz val="12"/>
-      <color indexed="12"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -2760,7 +2777,7 @@
   <dimension ref="B4:M29"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -2815,7 +2832,7 @@
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.25">
       <c r="F9" s="26" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="G9" s="26"/>
       <c r="H9" s="26"/>
@@ -2837,7 +2854,7 @@
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B13" s="25" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.25">
@@ -2945,7 +2962,7 @@
   </sheetPr>
   <dimension ref="B4:G38"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A21" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
@@ -3109,7 +3126,9 @@
   </sheetPr>
   <dimension ref="A4:M83"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -3135,14 +3154,14 @@
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" s="24" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C6" s="22"/>
       <c r="D6" s="22"/>
       <c r="E6" s="22"/>
       <c r="F6" s="22"/>
       <c r="G6" s="24" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="H6" s="22"/>
     </row>
@@ -3176,7 +3195,7 @@
       <c r="D9" s="22"/>
       <c r="E9" s="22"/>
       <c r="F9" s="24" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G9" s="22"/>
       <c r="H9" s="22"/>
@@ -3197,7 +3216,7 @@
         <v>43</v>
       </c>
       <c r="C11" s="24"/>
-      <c r="D11" s="22"/>
+      <c r="D11" s="24"/>
       <c r="E11" s="22"/>
       <c r="F11" s="22"/>
       <c r="G11" s="22"/>
@@ -3362,7 +3381,7 @@
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B27" s="24" t="s">
-        <v>56</v>
+        <v>217</v>
       </c>
       <c r="C27" s="22"/>
       <c r="D27" s="22"/>
@@ -3390,7 +3409,7 @@
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B29" s="24" t="s">
-        <v>57</v>
+        <v>219</v>
       </c>
       <c r="C29" s="22"/>
       <c r="D29" s="22"/>
@@ -3417,8 +3436,8 @@
       <c r="L30" s="22"/>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B31" s="22" t="s">
-        <v>58</v>
+      <c r="B31" s="24" t="s">
+        <v>220</v>
       </c>
       <c r="C31" s="22"/>
       <c r="D31" s="22"/>
@@ -3446,7 +3465,7 @@
     </row>
     <row r="33" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B33" s="24" t="s">
-        <v>59</v>
+        <v>221</v>
       </c>
       <c r="C33" s="22"/>
       <c r="D33" s="22"/>
@@ -3461,7 +3480,7 @@
     </row>
     <row r="35" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B35" s="23" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C35" s="23"/>
       <c r="D35" s="23"/>
@@ -3481,7 +3500,7 @@
     </row>
     <row r="37" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B37" s="23" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C37" s="23"/>
       <c r="D37" s="23"/>
@@ -3501,7 +3520,7 @@
     </row>
     <row r="39" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B39" s="23" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C39" s="23"/>
       <c r="D39" s="23"/>
@@ -3521,7 +3540,7 @@
     </row>
     <row r="41" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B41" s="23" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C41" s="23"/>
       <c r="D41" s="23"/>
@@ -3532,7 +3551,7 @@
     </row>
     <row r="43" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B43" s="24" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C43" s="22"/>
       <c r="D43" s="22"/>
@@ -3540,7 +3559,7 @@
     </row>
     <row r="47" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
@@ -3558,7 +3577,7 @@
       <c r="B50" s="7"/>
       <c r="C50" s="7"/>
       <c r="D50" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
@@ -3569,13 +3588,13 @@
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="H51" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="J51" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="L51" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
@@ -3604,7 +3623,7 @@
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B56" s="9" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C56" s="5"/>
       <c r="E56" s="8"/>
@@ -3616,7 +3635,7 @@
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B57" s="5" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C57" s="5"/>
       <c r="E57" s="8"/>
@@ -3628,86 +3647,86 @@
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B58" s="5" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C58" s="5"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="H58" s="12" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="I58" s="19"/>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B59" s="5" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C59" s="5"/>
       <c r="E59" s="13" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F59" s="14"/>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B60" s="5" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C60" s="5"/>
       <c r="E60" s="14" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F60" s="14"/>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B61" s="5" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C61" s="5"/>
       <c r="E61" s="14" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F61" s="14"/>
       <c r="H61" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="J61" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="L61" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B62" s="5" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C62" s="5"/>
       <c r="E62" s="14" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F62" s="14"/>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B63" s="5" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C63" s="5"/>
       <c r="E63" s="14" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F63" s="14"/>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B64" s="5" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C64" s="5"/>
       <c r="E64" s="14" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F64" s="14"/>
       <c r="H64" s="25" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="I64" s="25"/>
       <c r="J64" s="25"/>
@@ -3717,11 +3736,11 @@
     </row>
     <row r="65" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B65" s="5" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C65" s="5"/>
       <c r="E65" s="14" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F65" s="14"/>
       <c r="H65" s="25"/>
@@ -3733,15 +3752,15 @@
     </row>
     <row r="66" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B66" s="5" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C66" s="5"/>
       <c r="E66" s="14" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F66" s="14"/>
       <c r="H66" s="25" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="I66" s="25"/>
       <c r="J66" s="25"/>
@@ -3753,7 +3772,7 @@
       <c r="B67" s="7"/>
       <c r="C67" s="7"/>
       <c r="E67" s="14" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F67" s="14"/>
       <c r="H67" s="25"/>
@@ -3767,11 +3786,11 @@
       <c r="B68" s="7"/>
       <c r="C68" s="7"/>
       <c r="E68" s="14" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F68" s="14"/>
       <c r="H68" s="25" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="I68" s="25"/>
       <c r="J68" s="25"/>
@@ -3783,11 +3802,11 @@
       <c r="B69" s="7"/>
       <c r="C69" s="7"/>
       <c r="E69" s="14" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F69" s="14"/>
       <c r="H69" s="25" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="I69" s="25"/>
       <c r="J69" s="25"/>
@@ -3813,7 +3832,7 @@
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="H71" s="25" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="I71" s="25"/>
       <c r="J71" s="25"/>
@@ -3835,7 +3854,7 @@
     </row>
     <row r="73" spans="2:13" x14ac:dyDescent="0.25">
       <c r="H73" s="25" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="I73" s="25"/>
       <c r="J73" s="25"/>
@@ -3853,7 +3872,7 @@
     </row>
     <row r="75" spans="2:13" x14ac:dyDescent="0.25">
       <c r="H75" s="25" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="I75" s="25"/>
       <c r="J75" s="25"/>
@@ -3863,17 +3882,17 @@
     </row>
     <row r="78" spans="2:13" x14ac:dyDescent="0.25">
       <c r="H78" s="21" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="80" spans="2:13" x14ac:dyDescent="0.25">
       <c r="H80" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="83" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H83" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -3898,22 +3917,22 @@
   <sheetData>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -3937,22 +3956,22 @@
   <sheetData>
     <row r="4" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="13" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -3981,11 +4000,11 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C20" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D20" s="2"/>
       <c r="I20" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="J20" s="2"/>
     </row>
@@ -3997,14 +4016,14 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C22" s="3" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="J22" s="3"/>
     </row>
@@ -4016,11 +4035,11 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C24" s="4" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D24" s="4"/>
       <c r="I24" s="4" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="J24" s="4"/>
     </row>
@@ -4034,7 +4053,7 @@
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
       <c r="F26" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="I26" s="5"/>
       <c r="J26" s="5"/>
@@ -4047,7 +4066,7 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
@@ -4064,7 +4083,7 @@
       <c r="C30" s="6"/>
       <c r="D30" s="5"/>
       <c r="E30" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="I30" s="5"/>
       <c r="J30" s="5"/>
@@ -4073,7 +4092,7 @@
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
       <c r="G31" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="I31" s="6"/>
       <c r="J31" s="6"/>
@@ -4086,7 +4105,7 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
@@ -4099,14 +4118,14 @@
       <c r="I34" s="5"/>
       <c r="J34" s="5"/>
       <c r="L34" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C35" s="6"/>
       <c r="D35" s="5"/>
       <c r="E35" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="I35" s="5"/>
       <c r="J35" s="5"/>
@@ -4125,12 +4144,12 @@
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
       <c r="G38" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="I38" s="6"/>
       <c r="J38" s="6"/>
@@ -4139,7 +4158,7 @@
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
       <c r="E39" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="I39" s="6"/>
       <c r="J39" s="6"/>
@@ -4148,7 +4167,7 @@
       <c r="C40" s="6"/>
       <c r="D40" s="5"/>
       <c r="E40" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="I40" s="6"/>
       <c r="J40" s="5"/>
@@ -4173,7 +4192,7 @@
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G45" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="I45" s="6"/>
       <c r="J45" s="6"/>
@@ -4211,15 +4230,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10ED97BD-719A-408F-BFE0-2FD9D494C13C}">
   <dimension ref="B6:K29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B6" s="22" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C6" s="22"/>
       <c r="D6" s="22"/>
@@ -4233,7 +4252,7 @@
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B7" s="22" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C7" s="22"/>
       <c r="D7" s="22"/>
@@ -4247,7 +4266,7 @@
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B8" s="22" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C8" s="22"/>
       <c r="D8" s="22"/>
@@ -4273,7 +4292,7 @@
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B10" s="22" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C10" s="22"/>
       <c r="D10" s="22"/>
@@ -4299,7 +4318,7 @@
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B12" s="22" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C12" s="22"/>
       <c r="D12" s="22"/>
@@ -4340,7 +4359,7 @@
     <row r="15" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B15" s="22"/>
       <c r="C15" s="22" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D15" s="22"/>
       <c r="E15" s="22"/>
@@ -4354,7 +4373,7 @@
     <row r="16" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B16" s="22"/>
       <c r="C16" s="22" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D16" s="22"/>
       <c r="E16" s="22"/>
@@ -4368,7 +4387,7 @@
     <row r="17" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B17" s="22"/>
       <c r="C17" s="22" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D17" s="22"/>
       <c r="E17" s="22"/>
@@ -4382,7 +4401,7 @@
     <row r="18" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B18" s="22"/>
       <c r="C18" s="22" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D18" s="22"/>
       <c r="E18" s="22"/>
@@ -4408,7 +4427,7 @@
     <row r="20" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B20" s="22"/>
       <c r="C20" s="22" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D20" s="22"/>
       <c r="E20" s="22"/>
@@ -4437,7 +4456,7 @@
       <c r="B22" s="22"/>
       <c r="C22" s="22"/>
       <c r="D22" s="22" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="E22" s="22"/>
       <c r="F22" s="22"/>
@@ -4451,7 +4470,7 @@
       <c r="B23" s="22"/>
       <c r="C23" s="22"/>
       <c r="D23" s="22" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="E23" s="22"/>
       <c r="F23" s="22"/>
@@ -4477,7 +4496,9 @@
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B25" s="22"/>
-      <c r="C25" s="22"/>
+      <c r="C25" s="24" t="s">
+        <v>218</v>
+      </c>
       <c r="D25" s="22"/>
       <c r="E25" s="22"/>
       <c r="F25" s="22"/>
@@ -4490,7 +4511,7 @@
     <row r="26" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B26" s="22"/>
       <c r="C26" s="22" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D26" s="22"/>
       <c r="E26" s="22"/>
@@ -4516,7 +4537,7 @@
     <row r="28" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B28" s="22"/>
       <c r="C28" s="22" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D28" s="22"/>
       <c r="E28" s="22"/>
@@ -4559,7 +4580,7 @@
   <sheetData>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B4" s="22" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C4" s="22"/>
       <c r="D4" s="22"/>
@@ -4575,7 +4596,7 @@
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B5" s="22" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C5" s="22"/>
       <c r="D5" s="22"/>
@@ -4605,7 +4626,7 @@
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B7" s="22" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C7" s="22"/>
       <c r="D7" s="22"/>
@@ -4621,7 +4642,7 @@
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B8" s="22" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C8" s="22"/>
       <c r="D8" s="22"/>
@@ -4637,7 +4658,7 @@
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B9" s="22" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C9" s="22"/>
       <c r="D9" s="22"/>
@@ -4681,7 +4702,7 @@
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B12" s="22" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C12" s="22"/>
       <c r="D12" s="22"/>
@@ -4714,7 +4735,7 @@
     <row r="14" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B14" s="22"/>
       <c r="C14" s="22" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D14" s="22"/>
       <c r="E14" s="22"/>
@@ -4730,7 +4751,7 @@
     <row r="15" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B15" s="22"/>
       <c r="C15" s="22" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D15" s="22"/>
       <c r="E15" s="22"/>
@@ -4746,7 +4767,7 @@
     <row r="16" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B16" s="22"/>
       <c r="C16" s="22" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D16" s="22"/>
       <c r="E16" s="22"/>
@@ -4776,7 +4797,7 @@
     <row r="18" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B18" s="22"/>
       <c r="C18" s="22" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D18" s="22"/>
       <c r="E18" s="22"/>
@@ -4809,7 +4830,7 @@
       <c r="B20" s="22"/>
       <c r="C20" s="22"/>
       <c r="D20" s="22" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E20" s="22"/>
       <c r="F20" s="22"/>
@@ -4825,7 +4846,7 @@
       <c r="B21" s="22"/>
       <c r="C21" s="22"/>
       <c r="D21" s="22" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="E21" s="22"/>
       <c r="F21" s="22"/>
@@ -4841,7 +4862,7 @@
       <c r="B22" s="22"/>
       <c r="C22" s="22"/>
       <c r="D22" s="22" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="E22" s="22"/>
       <c r="F22" s="22"/>
@@ -4857,7 +4878,7 @@
       <c r="B23" s="22"/>
       <c r="C23" s="22"/>
       <c r="D23" s="22" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="E23" s="22"/>
       <c r="F23" s="22"/>
@@ -4873,7 +4894,7 @@
       <c r="B24" s="22"/>
       <c r="C24" s="22"/>
       <c r="D24" s="22" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="E24" s="22"/>
       <c r="F24" s="22"/>
@@ -4889,7 +4910,7 @@
       <c r="B25" s="22"/>
       <c r="C25" s="22"/>
       <c r="D25" s="22" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="E25" s="22"/>
       <c r="F25" s="22"/>
@@ -4922,7 +4943,7 @@
       <c r="C27" s="22"/>
       <c r="D27" s="22"/>
       <c r="E27" s="22" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="F27" s="22"/>
       <c r="G27" s="22"/>
@@ -4938,7 +4959,7 @@
       <c r="C28" s="22"/>
       <c r="D28" s="22"/>
       <c r="E28" s="22" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="F28" s="22"/>
       <c r="G28" s="22"/>
@@ -4954,7 +4975,7 @@
       <c r="C29" s="22"/>
       <c r="D29" s="22"/>
       <c r="E29" s="22" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="F29" s="22"/>
       <c r="G29" s="22"/>
@@ -4971,7 +4992,7 @@
       <c r="D30" s="22"/>
       <c r="E30" s="22"/>
       <c r="F30" s="22" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="G30" s="22"/>
       <c r="H30" s="22"/>
@@ -5046,7 +5067,7 @@
     <row r="35" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B35" s="22"/>
       <c r="C35" s="22" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D35" s="22"/>
       <c r="E35" s="22"/>
@@ -5079,7 +5100,7 @@
       <c r="B37" s="22"/>
       <c r="C37" s="22"/>
       <c r="D37" s="22" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E37" s="22"/>
       <c r="F37" s="22"/>
@@ -5096,7 +5117,7 @@
       <c r="C38" s="22"/>
       <c r="D38" s="22"/>
       <c r="E38" s="22" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="F38" s="22"/>
       <c r="G38" s="22"/>
@@ -5112,7 +5133,7 @@
       <c r="C39" s="22"/>
       <c r="D39" s="22"/>
       <c r="E39" s="22" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F39" s="22"/>
       <c r="G39" s="22"/>
@@ -5127,7 +5148,7 @@
       <c r="B40" s="22"/>
       <c r="C40" s="22"/>
       <c r="D40" s="22" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E40" s="22"/>
       <c r="F40" s="22"/>
@@ -5144,7 +5165,7 @@
       <c r="C41" s="22"/>
       <c r="D41" s="22"/>
       <c r="E41" s="22" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F41" s="22"/>
       <c r="G41" s="22"/>
@@ -5160,7 +5181,7 @@
       <c r="C42" s="22"/>
       <c r="D42" s="22"/>
       <c r="E42" s="22" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="F42" s="22"/>
       <c r="G42" s="22"/>
@@ -5176,7 +5197,7 @@
       <c r="C43" s="22"/>
       <c r="D43" s="22"/>
       <c r="E43" s="22" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F43" s="22"/>
       <c r="G43" s="22"/>
@@ -5191,7 +5212,7 @@
       <c r="B44" s="22"/>
       <c r="C44" s="22"/>
       <c r="D44" s="22" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E44" s="22"/>
       <c r="F44" s="22"/>
@@ -5208,7 +5229,7 @@
       <c r="C45" s="22"/>
       <c r="D45" s="22"/>
       <c r="E45" s="22" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="F45" s="22"/>
       <c r="G45" s="22"/>
@@ -5224,7 +5245,7 @@
       <c r="C46" s="22"/>
       <c r="D46" s="22"/>
       <c r="E46" s="22" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F46" s="22"/>
       <c r="G46" s="22"/>
@@ -5240,7 +5261,7 @@
       <c r="C47" s="22"/>
       <c r="D47" s="22"/>
       <c r="E47" s="22" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="F47" s="22"/>
       <c r="G47" s="22"/>
@@ -5256,7 +5277,7 @@
       <c r="C48" s="22"/>
       <c r="D48" s="22"/>
       <c r="E48" s="22" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F48" s="22"/>
       <c r="G48" s="22"/>
@@ -5285,7 +5306,7 @@
       <c r="B50" s="22"/>
       <c r="C50" s="22"/>
       <c r="D50" s="22" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="E50" s="22"/>
       <c r="F50" s="22"/>
@@ -5302,7 +5323,7 @@
       <c r="C51" s="22"/>
       <c r="D51" s="22"/>
       <c r="E51" s="22" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="F51" s="22"/>
       <c r="G51" s="22"/>
@@ -5318,7 +5339,7 @@
       <c r="C52" s="22"/>
       <c r="D52" s="22"/>
       <c r="E52" s="22" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="F52" s="22"/>
       <c r="G52" s="22"/>
@@ -5334,7 +5355,7 @@
       <c r="C53" s="22"/>
       <c r="D53" s="22"/>
       <c r="E53" s="22" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="F53" s="22"/>
       <c r="G53" s="22"/>
@@ -5350,7 +5371,7 @@
       <c r="C54" s="22"/>
       <c r="D54" s="22"/>
       <c r="E54" s="22" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="F54" s="22"/>
       <c r="G54" s="22"/>
@@ -5394,7 +5415,7 @@
     <row r="57" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B57" s="22"/>
       <c r="C57" s="22" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D57" s="22"/>
       <c r="E57" s="22"/>
@@ -5495,7 +5516,7 @@
     </row>
     <row r="64" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B64" s="22" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C64" s="22"/>
       <c r="D64" s="22"/>
@@ -5511,7 +5532,7 @@
     </row>
     <row r="65" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B65" s="22" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C65" s="22"/>
       <c r="D65" s="22"/>
@@ -5544,7 +5565,7 @@
     <row r="67" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B67" s="22"/>
       <c r="C67" s="22" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D67" s="22"/>
       <c r="E67" s="22"/>
@@ -5560,7 +5581,7 @@
     <row r="68" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B68" s="22"/>
       <c r="C68" s="22" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D68" s="22"/>
       <c r="E68" s="22"/>
@@ -5576,7 +5597,7 @@
     <row r="69" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B69" s="22"/>
       <c r="C69" s="22" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D69" s="22"/>
       <c r="E69" s="22"/>
@@ -5609,7 +5630,7 @@
       <c r="B71" s="22"/>
       <c r="C71" s="22"/>
       <c r="D71" s="22" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="E71" s="22"/>
       <c r="F71" s="22"/>
@@ -5638,7 +5659,7 @@
     <row r="73" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B73" s="22"/>
       <c r="C73" s="22" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D73" s="22"/>
       <c r="E73" s="22"/>
@@ -5655,7 +5676,7 @@
       <c r="B74" s="22"/>
       <c r="C74" s="22"/>
       <c r="D74" s="22" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="E74" s="22"/>
       <c r="F74" s="22"/>
@@ -5715,7 +5736,7 @@
     </row>
     <row r="78" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B78" s="22" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C78" s="22"/>
       <c r="D78" s="22"/>
@@ -5748,7 +5769,7 @@
   <sheetData>
     <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B4" s="22" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C4" s="22"/>
       <c r="D4" s="22"/>
@@ -5763,7 +5784,7 @@
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B5" s="22" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C5" s="22"/>
       <c r="D5" s="22"/>
@@ -5778,7 +5799,7 @@
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B6" s="22" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C6" s="22"/>
       <c r="D6" s="22"/>
@@ -5806,7 +5827,7 @@
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B8" s="22" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C8" s="22"/>
       <c r="D8" s="22"/>
@@ -5821,7 +5842,7 @@
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B9" s="22" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C9" s="22"/>
       <c r="D9" s="22"/>
@@ -5849,7 +5870,7 @@
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B11" s="22" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C11" s="22"/>
       <c r="D11" s="22"/>
@@ -5864,7 +5885,7 @@
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B12" s="22" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C12" s="22"/>
       <c r="D12" s="22"/>
@@ -5879,7 +5900,7 @@
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B13" s="22" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C13" s="22"/>
       <c r="D13" s="22"/>
@@ -5920,7 +5941,7 @@
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B16" s="22" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C16" s="22"/>
       <c r="D16" s="22"/>
@@ -5951,7 +5972,7 @@
     <row r="18" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B18" s="22"/>
       <c r="C18" s="22" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="D18" s="22"/>
       <c r="E18" s="22"/>
@@ -5966,7 +5987,7 @@
     <row r="19" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B19" s="22"/>
       <c r="C19" s="22" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="D19" s="22"/>
       <c r="E19" s="22"/>
@@ -5985,7 +6006,7 @@
       <c r="E20" s="22"/>
       <c r="F20" s="22"/>
       <c r="G20" s="22" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="H20" s="22"/>
       <c r="I20" s="22"/>
@@ -6000,7 +6021,7 @@
       <c r="E21" s="22"/>
       <c r="F21" s="22"/>
       <c r="G21" s="22" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="H21" s="22"/>
       <c r="I21" s="22"/>
@@ -6015,7 +6036,7 @@
       <c r="E22" s="22"/>
       <c r="F22" s="22"/>
       <c r="G22" s="22" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H22" s="22"/>
       <c r="I22" s="22"/>
@@ -6030,7 +6051,7 @@
       <c r="E23" s="22"/>
       <c r="F23" s="22"/>
       <c r="G23" s="22" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="H23" s="22"/>
       <c r="I23" s="22"/>
@@ -6045,7 +6066,7 @@
       <c r="E24" s="22"/>
       <c r="F24" s="22"/>
       <c r="G24" s="22" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="H24" s="22"/>
       <c r="I24" s="22"/>
@@ -6060,7 +6081,7 @@
       <c r="E25" s="22"/>
       <c r="F25" s="22"/>
       <c r="G25" s="22" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="H25" s="22"/>
       <c r="I25" s="22"/>
@@ -6075,7 +6096,7 @@
       <c r="E26" s="22"/>
       <c r="F26" s="22"/>
       <c r="G26" s="22" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="H26" s="22"/>
       <c r="I26" s="22"/>
@@ -6090,7 +6111,7 @@
       <c r="E27" s="22"/>
       <c r="F27" s="22"/>
       <c r="G27" s="22" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="H27" s="22"/>
       <c r="I27" s="22"/>
@@ -6105,7 +6126,7 @@
       <c r="E28" s="22"/>
       <c r="F28" s="22"/>
       <c r="G28" s="22" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="H28" s="22"/>
       <c r="I28" s="22"/>
@@ -6120,7 +6141,7 @@
       <c r="E29" s="22"/>
       <c r="F29" s="22"/>
       <c r="G29" s="22" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="H29" s="22"/>
       <c r="I29" s="22"/>
@@ -6131,7 +6152,7 @@
     <row r="30" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B30" s="22"/>
       <c r="C30" s="22" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="D30" s="22"/>
       <c r="E30" s="22"/>
@@ -6146,7 +6167,7 @@
     <row r="31" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B31" s="22"/>
       <c r="C31" s="22" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="D31" s="22"/>
       <c r="E31" s="22"/>
@@ -6161,7 +6182,7 @@
     <row r="32" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B32" s="22"/>
       <c r="C32" s="22" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="D32" s="22"/>
       <c r="E32" s="22"/>
@@ -6176,7 +6197,7 @@
     <row r="33" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B33" s="22"/>
       <c r="C33" s="22" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D33" s="22"/>
       <c r="E33" s="22"/>
@@ -6193,7 +6214,7 @@
       <c r="C34" s="22"/>
       <c r="D34" s="22"/>
       <c r="E34" s="22" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="F34" s="22"/>
       <c r="G34" s="22"/>
@@ -6208,7 +6229,7 @@
       <c r="C35" s="22"/>
       <c r="D35" s="22"/>
       <c r="E35" s="22" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="F35" s="22"/>
       <c r="G35" s="22"/>
@@ -6223,7 +6244,7 @@
       <c r="C36" s="22"/>
       <c r="D36" s="22"/>
       <c r="E36" s="22" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="F36" s="22"/>
       <c r="G36" s="22"/>
@@ -6238,7 +6259,7 @@
       <c r="C37" s="22"/>
       <c r="D37" s="22"/>
       <c r="E37" s="22" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="F37" s="22"/>
       <c r="G37" s="22"/>
@@ -6253,7 +6274,7 @@
       <c r="C38" s="22"/>
       <c r="D38" s="22"/>
       <c r="E38" s="22" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="F38" s="22"/>
       <c r="G38" s="22"/>
@@ -6268,7 +6289,7 @@
       <c r="C39" s="22"/>
       <c r="D39" s="22"/>
       <c r="E39" s="22" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="F39" s="22"/>
       <c r="G39" s="22"/>
@@ -6283,7 +6304,7 @@
       <c r="C40" s="22"/>
       <c r="D40" s="22"/>
       <c r="E40" s="22" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="F40" s="22"/>
       <c r="G40" s="22"/>
@@ -6298,7 +6319,7 @@
       <c r="C41" s="22"/>
       <c r="D41" s="22"/>
       <c r="E41" s="22" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="F41" s="22"/>
       <c r="G41" s="22"/>
@@ -6313,7 +6334,7 @@
       <c r="C42" s="22"/>
       <c r="D42" s="22"/>
       <c r="E42" s="22" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F42" s="22"/>
       <c r="G42" s="22"/>
@@ -6328,7 +6349,7 @@
       <c r="C43" s="22"/>
       <c r="D43" s="22"/>
       <c r="E43" s="22" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="F43" s="22"/>
       <c r="G43" s="22"/>
@@ -6381,7 +6402,7 @@
     </row>
     <row r="47" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B47" s="22" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C47" s="22"/>
       <c r="D47" s="22"/>
@@ -6412,7 +6433,7 @@
   <sheetData>
     <row r="3" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B3" s="22" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C3" s="22"/>
       <c r="D3" s="22"/>
@@ -6427,7 +6448,7 @@
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B4" s="22" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C4" s="22"/>
       <c r="D4" s="22"/>
@@ -6442,7 +6463,7 @@
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B5" s="22" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C5" s="22"/>
       <c r="D5" s="22"/>
@@ -6457,7 +6478,7 @@
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B6" s="22" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C6" s="22"/>
       <c r="D6" s="22"/>
@@ -6485,7 +6506,7 @@
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B8" s="22" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C8" s="22"/>
       <c r="D8" s="22"/>
@@ -6500,7 +6521,7 @@
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B9" s="22" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C9" s="22"/>
       <c r="D9" s="22"/>
@@ -6528,7 +6549,7 @@
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B11" s="22" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C11" s="22"/>
       <c r="D11" s="22"/>
@@ -6543,7 +6564,7 @@
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B12" s="22" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C12" s="22"/>
       <c r="D12" s="22"/>
@@ -6571,7 +6592,7 @@
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B14" s="22" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C14" s="22"/>
       <c r="D14" s="22"/>
@@ -6586,10 +6607,10 @@
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B15" s="22" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="D15" s="22"/>
       <c r="E15" s="22"/>
@@ -6603,7 +6624,7 @@
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B16" s="22" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C16" s="22"/>
       <c r="D16" s="22"/>
@@ -6618,7 +6639,7 @@
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B17" s="22" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C17" s="22"/>
       <c r="D17" s="22"/>
@@ -6633,7 +6654,7 @@
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B18" s="22" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C18" s="22"/>
       <c r="D18" s="22"/>
@@ -6674,7 +6695,7 @@
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B21" s="22" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C21" s="22"/>
       <c r="D21" s="22"/>
@@ -6689,7 +6710,7 @@
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B22" s="22" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C22" s="22"/>
       <c r="D22" s="22"/>
@@ -6704,7 +6725,7 @@
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B23" s="22" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C23" s="22"/>
       <c r="D23" s="22"/>
@@ -6719,7 +6740,7 @@
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B24" s="22" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C24" s="22"/>
       <c r="D24" s="22"/>
@@ -6734,7 +6755,7 @@
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B25" s="22" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C25" s="22"/>
       <c r="D25" s="22"/>
@@ -6749,7 +6770,7 @@
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B26" s="22" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C26" s="22"/>
       <c r="D26" s="22"/>
@@ -6764,7 +6785,7 @@
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B27" s="22" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C27" s="22"/>
       <c r="D27" s="22"/>
@@ -6792,7 +6813,7 @@
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B29" s="22" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C29" s="22"/>
       <c r="D29" s="22"/>
@@ -6833,7 +6854,7 @@
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B32" s="22" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C32" s="22"/>
       <c r="D32" s="22"/>
@@ -6861,7 +6882,7 @@
     </row>
     <row r="34" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B34" s="22" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C34" s="22"/>
       <c r="D34" s="22"/>
@@ -6876,7 +6897,7 @@
     </row>
     <row r="35" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B35" s="22" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C35" s="22"/>
       <c r="D35" s="22"/>
@@ -6904,7 +6925,7 @@
     </row>
     <row r="37" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B37" s="22" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C37" s="22"/>
       <c r="D37" s="22"/>

--- a/03 PE/003 节表解释器.xlsx
+++ b/03 PE/003 节表解释器.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\.important\mySoftwareReverse\03 PE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{988C779A-D839-4CA6-957B-0A77A7532748}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6EF8C66-2FE8-441E-858E-2D55F58C3DFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="229">
   <si>
     <t>1、联合体</t>
   </si>
@@ -762,10 +762,6 @@
     </r>
   </si>
   <si>
-    <t>2、Misc  双字 是该节在没有对齐前的真实尺寸,该值可以不准确，存储该节运行时在内存中大小，可以大于 SizeOfRawData</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>free(file_buffer);  // 释放heap</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -779,6 +775,43 @@
   </si>
   <si>
     <t>5、PointerToRawData 节区在文件中的偏移.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2、Misc   是该节在没有对齐前的真实尺寸,该值可以不准确，</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>存储该节运行时在内存中大小(该节若含有大量未初始化的数据，则大于 SizeOfRawData)</t>
+  </si>
+  <si>
+    <t>0x00000020 // 节区包含代码</t>
+  </si>
+  <si>
+    <t>0x00000040 // 节区包含已初始化数据</t>
+  </si>
+  <si>
+    <t>0x00000080 // 节区包含未初始化数据</t>
+  </si>
+  <si>
+    <t>0x20000000 // 节区可作为代码执行</t>
+  </si>
+  <si>
+    <t>0x80000000 // 节区可写</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">0x40000000 // </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>节区可读</t>
+    </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -786,7 +819,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -845,6 +878,17 @@
       <sz val="12"/>
       <name val="宋体"/>
       <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -1005,7 +1049,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1085,6 +1129,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1278,13 +1328,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>106680</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>175260</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>312420</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1332,13 +1382,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>297180</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>167640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1386,13 +1436,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>396240</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1440,13 +1490,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>91440</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>137160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>198120</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>22860</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1494,13 +1544,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>91440</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>60960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1548,13 +1598,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>594360</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>83820</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1602,13 +1652,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>335280</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>335280</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3124,10 +3174,10 @@
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A4:M83"/>
+  <dimension ref="A4:M87"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A31" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="H48" sqref="H48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -3381,7 +3431,7 @@
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B27" s="24" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="C27" s="22"/>
       <c r="D27" s="22"/>
@@ -3396,7 +3446,9 @@
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B28" s="22"/>
-      <c r="C28" s="22"/>
+      <c r="C28" s="24" t="s">
+        <v>222</v>
+      </c>
       <c r="D28" s="22"/>
       <c r="E28" s="22"/>
       <c r="F28" s="22"/>
@@ -3408,10 +3460,8 @@
       <c r="L28" s="22"/>
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B29" s="24" t="s">
-        <v>219</v>
-      </c>
-      <c r="C29" s="22"/>
+      <c r="B29" s="22"/>
+      <c r="C29" s="24"/>
       <c r="D29" s="22"/>
       <c r="E29" s="22"/>
       <c r="F29" s="22"/>
@@ -3423,7 +3473,9 @@
       <c r="L29" s="22"/>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B30" s="22"/>
+      <c r="B30" s="24" t="s">
+        <v>218</v>
+      </c>
       <c r="C30" s="22"/>
       <c r="D30" s="22"/>
       <c r="E30" s="22"/>
@@ -3436,9 +3488,7 @@
       <c r="L30" s="22"/>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B31" s="24" t="s">
-        <v>220</v>
-      </c>
+      <c r="B31" s="22"/>
       <c r="C31" s="22"/>
       <c r="D31" s="22"/>
       <c r="E31" s="22"/>
@@ -3451,7 +3501,9 @@
       <c r="L31" s="22"/>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B32" s="22"/>
+      <c r="B32" s="24" t="s">
+        <v>219</v>
+      </c>
       <c r="C32" s="22"/>
       <c r="D32" s="22"/>
       <c r="E32" s="22"/>
@@ -3464,9 +3516,7 @@
       <c r="L32" s="22"/>
     </row>
     <row r="33" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B33" s="24" t="s">
-        <v>221</v>
-      </c>
+      <c r="B33" s="22"/>
       <c r="C33" s="22"/>
       <c r="D33" s="22"/>
       <c r="E33" s="22"/>
@@ -3478,19 +3528,25 @@
       <c r="K33" s="22"/>
       <c r="L33" s="22"/>
     </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B35" s="23" t="s">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B34" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="C34" s="22"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="22"/>
+      <c r="F34" s="22"/>
+      <c r="G34" s="22"/>
+      <c r="H34" s="22"/>
+      <c r="I34" s="22"/>
+      <c r="J34" s="22"/>
+      <c r="K34" s="22"/>
+      <c r="L34" s="22"/>
+    </row>
+    <row r="36" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B36" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="C35" s="23"/>
-      <c r="D35" s="23"/>
-      <c r="E35" s="23"/>
-      <c r="F35" s="23"/>
-      <c r="G35" s="23"/>
-      <c r="H35" s="23"/>
-    </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B36" s="23"/>
       <c r="C36" s="23"/>
       <c r="D36" s="23"/>
       <c r="E36" s="23"/>
@@ -3499,9 +3555,7 @@
       <c r="H36" s="23"/>
     </row>
     <row r="37" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B37" s="23" t="s">
-        <v>57</v>
-      </c>
+      <c r="B37" s="23"/>
       <c r="C37" s="23"/>
       <c r="D37" s="23"/>
       <c r="E37" s="23"/>
@@ -3510,7 +3564,9 @@
       <c r="H37" s="23"/>
     </row>
     <row r="38" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B38" s="23"/>
+      <c r="B38" s="23" t="s">
+        <v>57</v>
+      </c>
       <c r="C38" s="23"/>
       <c r="D38" s="23"/>
       <c r="E38" s="23"/>
@@ -3519,9 +3575,7 @@
       <c r="H38" s="23"/>
     </row>
     <row r="39" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B39" s="23" t="s">
-        <v>58</v>
-      </c>
+      <c r="B39" s="23"/>
       <c r="C39" s="23"/>
       <c r="D39" s="23"/>
       <c r="E39" s="23"/>
@@ -3530,7 +3584,9 @@
       <c r="H39" s="23"/>
     </row>
     <row r="40" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B40" s="23"/>
+      <c r="B40" s="23" t="s">
+        <v>58</v>
+      </c>
       <c r="C40" s="23"/>
       <c r="D40" s="23"/>
       <c r="E40" s="23"/>
@@ -3539,9 +3595,7 @@
       <c r="H40" s="23"/>
     </row>
     <row r="41" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B41" s="23" t="s">
-        <v>59</v>
-      </c>
+      <c r="B41" s="23"/>
       <c r="C41" s="23"/>
       <c r="D41" s="23"/>
       <c r="E41" s="23"/>
@@ -3549,248 +3603,247 @@
       <c r="G41" s="23"/>
       <c r="H41" s="23"/>
     </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B43" s="24" t="s">
+    <row r="42" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B42" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="C42" s="23"/>
+      <c r="D42" s="23"/>
+      <c r="E42" s="23"/>
+      <c r="F42" s="23"/>
+      <c r="G42" s="23"/>
+      <c r="H42" s="23"/>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B44" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="C43" s="22"/>
-      <c r="D43" s="22"/>
-      <c r="E43" s="22"/>
+      <c r="C44" s="22"/>
+      <c r="D44" s="22"/>
+      <c r="E44" s="22"/>
+    </row>
+    <row r="45" spans="2:12" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="C45" s="27" t="s">
+        <v>223</v>
+      </c>
+      <c r="D45" s="28"/>
+      <c r="E45" s="28"/>
+      <c r="F45" s="22"/>
+      <c r="G45" s="27" t="s">
+        <v>228</v>
+      </c>
+      <c r="H45" s="22"/>
+      <c r="I45" s="22"/>
+      <c r="J45" s="22"/>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C46" s="27" t="s">
+        <v>224</v>
+      </c>
+      <c r="D46" s="28"/>
+      <c r="E46" s="28"/>
+      <c r="F46" s="22"/>
+      <c r="G46" s="27" t="s">
+        <v>227</v>
+      </c>
+      <c r="H46" s="22"/>
+      <c r="I46" s="22"/>
+      <c r="J46" s="22"/>
     </row>
     <row r="47" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B47" t="s">
+      <c r="C47" s="27" t="s">
+        <v>225</v>
+      </c>
+      <c r="D47" s="28"/>
+      <c r="E47" s="28"/>
+      <c r="F47" s="22"/>
+      <c r="G47" s="28"/>
+      <c r="H47" s="22"/>
+      <c r="I47" s="22"/>
+      <c r="J47" s="22"/>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C48" s="27" t="s">
+        <v>226</v>
+      </c>
+      <c r="D48" s="28"/>
+      <c r="E48" s="28"/>
+      <c r="F48" s="22"/>
+      <c r="G48" s="28"/>
+      <c r="H48" s="22"/>
+      <c r="I48" s="22"/>
+      <c r="J48" s="22"/>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B49" t="s">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
         <v>9</v>
       </c>
-      <c r="E49" t="s">
+      <c r="E53" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A50">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A54">
         <v>0</v>
       </c>
-      <c r="B50" s="7"/>
-      <c r="C50" s="7"/>
-      <c r="D50" t="s">
-        <v>62</v>
-      </c>
-      <c r="E50" s="8"/>
-      <c r="F50" s="8"/>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B51" s="7"/>
-      <c r="C51" s="7"/>
-      <c r="E51" s="8"/>
-      <c r="F51" s="8"/>
-      <c r="H51" t="s">
-        <v>63</v>
-      </c>
-      <c r="J51" t="s">
-        <v>64</v>
-      </c>
-      <c r="L51" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B52" s="7"/>
-      <c r="C52" s="7"/>
-      <c r="E52" s="8"/>
-      <c r="F52" s="8"/>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B53" s="7"/>
-      <c r="C53" s="7"/>
-      <c r="E53" s="8"/>
-      <c r="F53" s="8"/>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B54" s="7"/>
       <c r="C54" s="7"/>
+      <c r="D54" t="s">
+        <v>62</v>
+      </c>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B55" s="7"/>
       <c r="C55" s="7"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B56" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="C56" s="5"/>
+      <c r="H55" t="s">
+        <v>63</v>
+      </c>
+      <c r="J55" t="s">
+        <v>64</v>
+      </c>
+      <c r="L55" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B56" s="7"/>
+      <c r="C56" s="7"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
-      <c r="H56" s="10"/>
-      <c r="I56" s="15"/>
-      <c r="J56" s="16"/>
-      <c r="K56" s="17"/>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B57" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="C57" s="5"/>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B57" s="7"/>
+      <c r="C57" s="7"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
-      <c r="H57" s="11"/>
-      <c r="I57" s="18"/>
-      <c r="J57" s="12"/>
-      <c r="K57" s="12"/>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B58" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="C58" s="5"/>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B58" s="7"/>
+      <c r="C58" s="7"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
-      <c r="H58" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="I58" s="19"/>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B59" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="C59" s="5"/>
-      <c r="E59" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="F59" s="14"/>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B60" s="5" t="s">
-        <v>67</v>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B59" s="7"/>
+      <c r="C59" s="7"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B60" s="9" t="s">
+        <v>66</v>
       </c>
       <c r="C60" s="5"/>
-      <c r="E60" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="F60" s="14"/>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="H60" s="10"/>
+      <c r="I60" s="15"/>
+      <c r="J60" s="16"/>
+      <c r="K60" s="17"/>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B61" s="5" t="s">
         <v>67</v>
       </c>
       <c r="C61" s="5"/>
-      <c r="E61" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="F61" s="14"/>
-      <c r="H61" t="s">
-        <v>71</v>
-      </c>
-      <c r="J61" t="s">
-        <v>72</v>
-      </c>
-      <c r="L61" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="H61" s="11"/>
+      <c r="I61" s="18"/>
+      <c r="J61" s="12"/>
+      <c r="K61" s="12"/>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B62" s="5" t="s">
         <v>67</v>
       </c>
       <c r="C62" s="5"/>
-      <c r="E62" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="F62" s="14"/>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="H62" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="I62" s="19"/>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B63" s="5" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C63" s="5"/>
-      <c r="E63" s="14" t="s">
-        <v>70</v>
+      <c r="E63" s="13" t="s">
+        <v>69</v>
       </c>
       <c r="F63" s="14"/>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B64" s="5" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C64" s="5"/>
       <c r="E64" s="14" t="s">
         <v>70</v>
       </c>
       <c r="F64" s="14"/>
-      <c r="H64" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="I64" s="25"/>
-      <c r="J64" s="25"/>
-      <c r="K64" s="25"/>
-      <c r="L64" s="25"/>
-      <c r="M64" s="25"/>
     </row>
     <row r="65" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B65" s="5" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C65" s="5"/>
       <c r="E65" s="14" t="s">
         <v>70</v>
       </c>
       <c r="F65" s="14"/>
-      <c r="H65" s="25"/>
-      <c r="I65" s="25"/>
-      <c r="J65" s="25"/>
-      <c r="K65" s="25"/>
-      <c r="L65" s="25"/>
-      <c r="M65" s="25"/>
+      <c r="H65" t="s">
+        <v>71</v>
+      </c>
+      <c r="J65" t="s">
+        <v>72</v>
+      </c>
+      <c r="L65" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="66" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B66" s="5" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C66" s="5"/>
       <c r="E66" s="14" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="F66" s="14"/>
-      <c r="H66" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="I66" s="25"/>
-      <c r="J66" s="25"/>
-      <c r="K66" s="25"/>
-      <c r="L66" s="25"/>
-      <c r="M66" s="25"/>
     </row>
     <row r="67" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B67" s="7"/>
-      <c r="C67" s="7"/>
+      <c r="B67" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C67" s="5"/>
       <c r="E67" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="F67" s="14"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B68" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="F67" s="14"/>
-      <c r="H67" s="25"/>
-      <c r="I67" s="25"/>
-      <c r="J67" s="25"/>
-      <c r="K67" s="25"/>
-      <c r="L67" s="25"/>
-      <c r="M67" s="25"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B68" s="7"/>
-      <c r="C68" s="7"/>
+      <c r="C68" s="5"/>
       <c r="E68" s="14" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="F68" s="14"/>
       <c r="H68" s="25" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I68" s="25"/>
       <c r="J68" s="25"/>
@@ -3799,15 +3852,15 @@
       <c r="M68" s="25"/>
     </row>
     <row r="69" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B69" s="7"/>
-      <c r="C69" s="7"/>
+      <c r="B69" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C69" s="5"/>
       <c r="E69" s="14" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="F69" s="14"/>
-      <c r="H69" s="25" t="s">
-        <v>80</v>
-      </c>
+      <c r="H69" s="25"/>
       <c r="I69" s="25"/>
       <c r="J69" s="25"/>
       <c r="K69" s="25"/>
@@ -3815,11 +3868,17 @@
       <c r="M69" s="25"/>
     </row>
     <row r="70" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B70" s="7"/>
-      <c r="C70" s="7"/>
-      <c r="E70" s="8"/>
-      <c r="F70" s="8"/>
-      <c r="H70" s="25"/>
+      <c r="B70" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C70" s="5"/>
+      <c r="E70" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="F70" s="14"/>
+      <c r="H70" s="25" t="s">
+        <v>78</v>
+      </c>
       <c r="I70" s="25"/>
       <c r="J70" s="25"/>
       <c r="K70" s="25"/>
@@ -3829,11 +3888,11 @@
     <row r="71" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B71" s="7"/>
       <c r="C71" s="7"/>
-      <c r="E71" s="8"/>
-      <c r="F71" s="8"/>
-      <c r="H71" s="25" t="s">
-        <v>81</v>
-      </c>
+      <c r="E71" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="F71" s="14"/>
+      <c r="H71" s="25"/>
       <c r="I71" s="25"/>
       <c r="J71" s="25"/>
       <c r="K71" s="25"/>
@@ -3843,9 +3902,13 @@
     <row r="72" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B72" s="7"/>
       <c r="C72" s="7"/>
-      <c r="E72" s="8"/>
-      <c r="F72" s="8"/>
-      <c r="H72" s="25"/>
+      <c r="E72" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="F72" s="14"/>
+      <c r="H72" s="25" t="s">
+        <v>79</v>
+      </c>
       <c r="I72" s="25"/>
       <c r="J72" s="25"/>
       <c r="K72" s="25"/>
@@ -3853,8 +3916,14 @@
       <c r="M72" s="25"/>
     </row>
     <row r="73" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B73" s="7"/>
+      <c r="C73" s="7"/>
+      <c r="E73" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="F73" s="14"/>
       <c r="H73" s="25" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I73" s="25"/>
       <c r="J73" s="25"/>
@@ -3863,6 +3932,10 @@
       <c r="M73" s="25"/>
     </row>
     <row r="74" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B74" s="7"/>
+      <c r="C74" s="7"/>
+      <c r="E74" s="8"/>
+      <c r="F74" s="8"/>
       <c r="H74" s="25"/>
       <c r="I74" s="25"/>
       <c r="J74" s="25"/>
@@ -3871,8 +3944,12 @@
       <c r="M74" s="25"/>
     </row>
     <row r="75" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B75" s="7"/>
+      <c r="C75" s="7"/>
+      <c r="E75" s="8"/>
+      <c r="F75" s="8"/>
       <c r="H75" s="25" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I75" s="25"/>
       <c r="J75" s="25"/>
@@ -3880,18 +3957,58 @@
       <c r="L75" s="25"/>
       <c r="M75" s="25"/>
     </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B76" s="7"/>
+      <c r="C76" s="7"/>
+      <c r="E76" s="8"/>
+      <c r="F76" s="8"/>
+      <c r="H76" s="25"/>
+      <c r="I76" s="25"/>
+      <c r="J76" s="25"/>
+      <c r="K76" s="25"/>
+      <c r="L76" s="25"/>
+      <c r="M76" s="25"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="H77" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="I77" s="25"/>
+      <c r="J77" s="25"/>
+      <c r="K77" s="25"/>
+      <c r="L77" s="25"/>
+      <c r="M77" s="25"/>
+    </row>
     <row r="78" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="H78" s="21" t="s">
+      <c r="H78" s="25"/>
+      <c r="I78" s="25"/>
+      <c r="J78" s="25"/>
+      <c r="K78" s="25"/>
+      <c r="L78" s="25"/>
+      <c r="M78" s="25"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="H79" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="I79" s="25"/>
+      <c r="J79" s="25"/>
+      <c r="K79" s="25"/>
+      <c r="L79" s="25"/>
+      <c r="M79" s="25"/>
+    </row>
+    <row r="82" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H82" s="21" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="H80" t="s">
+    <row r="84" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H84" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="83" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H83" t="s">
+    <row r="87" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H87" t="s">
         <v>86</v>
       </c>
     </row>
@@ -4497,7 +4614,7 @@
     <row r="25" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B25" s="22"/>
       <c r="C25" s="24" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D25" s="22"/>
       <c r="E25" s="22"/>
